--- a/data/HR1_2/Location1/Location1_2030.xlsx
+++ b/data/HR1_2/Location1/Location1_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1_2\Location1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E2054D-83A3-43B8-A201-DA6CA26BD57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6F5AF0-9556-4E0D-81D5-4AC28C26A832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -254,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -268,8 +268,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8471,7 +8469,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8523,8 +8521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF286627-C6AA-4C9E-84BA-41DB1241B870}">
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13639,7 +13637,7 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="2">
@@ -13740,7 +13738,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="2">
@@ -13841,7 +13839,7 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="2">
@@ -13942,7 +13940,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
@@ -14043,7 +14041,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
@@ -14144,7 +14142,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7">
         <v>9</v>
       </c>
       <c r="B7" s="2">
@@ -14245,7 +14243,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8">
         <v>10</v>
       </c>
       <c r="B8" s="2">
@@ -14346,7 +14344,7 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9">
         <v>12</v>
       </c>
       <c r="B9" s="2">
@@ -14447,7 +14445,7 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10">
         <v>15</v>
       </c>
       <c r="B10" s="2">
@@ -14548,7 +14546,7 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11">
         <v>16</v>
       </c>
       <c r="B11" s="2">
@@ -14649,7 +14647,7 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12">
         <v>17</v>
       </c>
       <c r="B12" s="2">
@@ -14750,7 +14748,7 @@
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="A13">
         <v>18</v>
       </c>
       <c r="B13" s="2">
@@ -14851,7 +14849,7 @@
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="A14">
         <v>20</v>
       </c>
       <c r="B14" s="2">
@@ -14952,7 +14950,7 @@
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15">
         <v>21</v>
       </c>
       <c r="B15" s="2">
@@ -15053,7 +15051,7 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="A16">
         <v>26</v>
       </c>
       <c r="B16" s="2">
@@ -15154,7 +15152,7 @@
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="A17">
         <v>30</v>
       </c>
       <c r="B17" s="2">
@@ -15255,7 +15253,7 @@
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="A18">
         <v>35</v>
       </c>
       <c r="B18" s="2">
@@ -15356,7 +15354,7 @@
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+      <c r="A19">
         <v>36</v>
       </c>
       <c r="B19" s="2">
@@ -15457,7 +15455,7 @@
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="A20">
         <v>42</v>
       </c>
       <c r="B20" s="2">
@@ -15558,7 +15556,7 @@
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+      <c r="A21">
         <v>55</v>
       </c>
       <c r="B21" s="2">
@@ -15659,7 +15657,7 @@
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+      <c r="A22">
         <v>68</v>
       </c>
       <c r="B22" s="2">
@@ -15760,7 +15758,7 @@
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+      <c r="A23">
         <v>72</v>
       </c>
       <c r="B23" s="2">
@@ -15861,7 +15859,7 @@
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+      <c r="A24">
         <v>103</v>
       </c>
       <c r="B24" s="2">
@@ -16054,7 +16052,7 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="2">
@@ -16155,7 +16153,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="2">
@@ -16256,7 +16254,7 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="2">
@@ -16357,7 +16355,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
@@ -16458,7 +16456,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
@@ -16559,7 +16557,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7">
         <v>9</v>
       </c>
       <c r="B7" s="2">
@@ -16660,7 +16658,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8">
         <v>10</v>
       </c>
       <c r="B8" s="2">
@@ -16761,7 +16759,7 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9">
         <v>12</v>
       </c>
       <c r="B9" s="2">
@@ -16862,7 +16860,7 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10">
         <v>15</v>
       </c>
       <c r="B10" s="2">
@@ -16963,7 +16961,7 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11">
         <v>16</v>
       </c>
       <c r="B11" s="2">
@@ -17064,7 +17062,7 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12">
         <v>17</v>
       </c>
       <c r="B12" s="2">
@@ -17165,7 +17163,7 @@
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="A13">
         <v>18</v>
       </c>
       <c r="B13" s="2">
@@ -17266,7 +17264,7 @@
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="A14">
         <v>20</v>
       </c>
       <c r="B14" s="2">
@@ -17367,7 +17365,7 @@
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15">
         <v>21</v>
       </c>
       <c r="B15" s="2">
@@ -17468,7 +17466,7 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="A16">
         <v>26</v>
       </c>
       <c r="B16" s="2">
@@ -17569,7 +17567,7 @@
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="A17">
         <v>30</v>
       </c>
       <c r="B17" s="2">
@@ -17670,7 +17668,7 @@
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="A18">
         <v>35</v>
       </c>
       <c r="B18" s="2">
@@ -17771,7 +17769,7 @@
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+      <c r="A19">
         <v>36</v>
       </c>
       <c r="B19" s="2">
@@ -17872,7 +17870,7 @@
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="A20">
         <v>42</v>
       </c>
       <c r="B20" s="2">
@@ -17973,7 +17971,7 @@
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+      <c r="A21">
         <v>55</v>
       </c>
       <c r="B21" s="2">
@@ -18074,7 +18072,7 @@
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+      <c r="A22">
         <v>68</v>
       </c>
       <c r="B22" s="2">
@@ -18175,7 +18173,7 @@
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+      <c r="A23">
         <v>72</v>
       </c>
       <c r="B23" s="2">
@@ -18276,7 +18274,7 @@
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+      <c r="A24">
         <v>103</v>
       </c>
       <c r="B24" s="2">
@@ -18469,7 +18467,7 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="5">
@@ -18570,7 +18568,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="5">
@@ -18671,7 +18669,7 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="5">
@@ -18772,7 +18770,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="5">
@@ -18873,7 +18871,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="5">
@@ -18974,7 +18972,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7">
         <v>9</v>
       </c>
       <c r="B7" s="5">
@@ -19075,7 +19073,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8">
         <v>10</v>
       </c>
       <c r="B8" s="5">
@@ -19176,7 +19174,7 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9">
         <v>12</v>
       </c>
       <c r="B9" s="5">
@@ -19277,7 +19275,7 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10">
         <v>15</v>
       </c>
       <c r="B10" s="5">
@@ -19378,7 +19376,7 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11">
         <v>16</v>
       </c>
       <c r="B11" s="5">
@@ -19479,7 +19477,7 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12">
         <v>17</v>
       </c>
       <c r="B12" s="5">
@@ -19580,7 +19578,7 @@
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="A13">
         <v>18</v>
       </c>
       <c r="B13" s="5">
@@ -19681,7 +19679,7 @@
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="A14">
         <v>20</v>
       </c>
       <c r="B14" s="5">
@@ -19782,7 +19780,7 @@
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15">
         <v>21</v>
       </c>
       <c r="B15" s="5">
@@ -19883,7 +19881,7 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="A16">
         <v>26</v>
       </c>
       <c r="B16" s="5">
@@ -19984,7 +19982,7 @@
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="A17">
         <v>30</v>
       </c>
       <c r="B17" s="5">
@@ -20085,7 +20083,7 @@
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="A18">
         <v>35</v>
       </c>
       <c r="B18" s="5">
@@ -20186,7 +20184,7 @@
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+      <c r="A19">
         <v>36</v>
       </c>
       <c r="B19" s="5">
@@ -20287,7 +20285,7 @@
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="A20">
         <v>42</v>
       </c>
       <c r="B20" s="5">
@@ -20388,7 +20386,7 @@
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+      <c r="A21">
         <v>55</v>
       </c>
       <c r="B21" s="5">
@@ -20489,7 +20487,7 @@
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+      <c r="A22">
         <v>68</v>
       </c>
       <c r="B22" s="5">
@@ -20590,7 +20588,7 @@
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+      <c r="A23">
         <v>72</v>
       </c>
       <c r="B23" s="5">
@@ -20691,7 +20689,7 @@
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+      <c r="A24">
         <v>103</v>
       </c>
       <c r="B24" s="5">
@@ -35208,7 +35206,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection sqref="A1:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35563,7 +35561,7 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="2">
@@ -35664,7 +35662,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="2">
@@ -35765,7 +35763,7 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="2">
@@ -35866,7 +35864,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
@@ -35967,7 +35965,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
@@ -36068,7 +36066,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7">
         <v>9</v>
       </c>
       <c r="B7" s="2">
@@ -36169,7 +36167,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8">
         <v>10</v>
       </c>
       <c r="B8" s="2">
@@ -36270,7 +36268,7 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9">
         <v>12</v>
       </c>
       <c r="B9" s="2">
@@ -36371,7 +36369,7 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10">
         <v>15</v>
       </c>
       <c r="B10" s="2">
@@ -36472,7 +36470,7 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11">
         <v>16</v>
       </c>
       <c r="B11" s="2">
@@ -36573,7 +36571,7 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12">
         <v>17</v>
       </c>
       <c r="B12" s="2">
@@ -36674,7 +36672,7 @@
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="A13">
         <v>18</v>
       </c>
       <c r="B13" s="2">
@@ -36775,7 +36773,7 @@
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="A14">
         <v>20</v>
       </c>
       <c r="B14" s="2">
@@ -36876,7 +36874,7 @@
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15">
         <v>21</v>
       </c>
       <c r="B15" s="2">
@@ -36977,7 +36975,7 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="A16">
         <v>26</v>
       </c>
       <c r="B16" s="2">
@@ -37078,7 +37076,7 @@
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="A17">
         <v>30</v>
       </c>
       <c r="B17" s="2">
@@ -37179,7 +37177,7 @@
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="A18">
         <v>35</v>
       </c>
       <c r="B18" s="2">
@@ -37280,7 +37278,7 @@
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+      <c r="A19">
         <v>36</v>
       </c>
       <c r="B19" s="2">
@@ -37381,7 +37379,7 @@
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="A20">
         <v>42</v>
       </c>
       <c r="B20" s="2">
@@ -37482,7 +37480,7 @@
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+      <c r="A21">
         <v>55</v>
       </c>
       <c r="B21" s="2">
@@ -37583,7 +37581,7 @@
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+      <c r="A22">
         <v>68</v>
       </c>
       <c r="B22" s="2">
@@ -37684,7 +37682,7 @@
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+      <c r="A23">
         <v>72</v>
       </c>
       <c r="B23" s="2">
@@ -37785,7 +37783,7 @@
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+      <c r="A24">
         <v>103</v>
       </c>
       <c r="B24" s="2">
@@ -37978,7 +37976,7 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="2">
@@ -38079,7 +38077,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="2">
@@ -38180,7 +38178,7 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="2">
@@ -38281,7 +38279,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
@@ -38382,7 +38380,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
@@ -38483,7 +38481,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7">
         <v>9</v>
       </c>
       <c r="B7" s="2">
@@ -38584,7 +38582,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8">
         <v>10</v>
       </c>
       <c r="B8" s="2">
@@ -38685,7 +38683,7 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9">
         <v>12</v>
       </c>
       <c r="B9" s="2">
@@ -38786,7 +38784,7 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10">
         <v>15</v>
       </c>
       <c r="B10" s="2">
@@ -38887,7 +38885,7 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11">
         <v>16</v>
       </c>
       <c r="B11" s="2">
@@ -38988,7 +38986,7 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12">
         <v>17</v>
       </c>
       <c r="B12" s="2">
@@ -39089,7 +39087,7 @@
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="A13">
         <v>18</v>
       </c>
       <c r="B13" s="2">
@@ -39190,7 +39188,7 @@
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="A14">
         <v>20</v>
       </c>
       <c r="B14" s="2">
@@ -39291,7 +39289,7 @@
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15">
         <v>21</v>
       </c>
       <c r="B15" s="2">
@@ -39392,7 +39390,7 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="A16">
         <v>26</v>
       </c>
       <c r="B16" s="2">
@@ -39493,7 +39491,7 @@
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="A17">
         <v>30</v>
       </c>
       <c r="B17" s="2">
@@ -39594,7 +39592,7 @@
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="A18">
         <v>35</v>
       </c>
       <c r="B18" s="2">
@@ -39695,7 +39693,7 @@
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+      <c r="A19">
         <v>36</v>
       </c>
       <c r="B19" s="2">
@@ -39796,7 +39794,7 @@
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="A20">
         <v>42</v>
       </c>
       <c r="B20" s="2">
@@ -39897,7 +39895,7 @@
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+      <c r="A21">
         <v>55</v>
       </c>
       <c r="B21" s="2">
@@ -39998,7 +39996,7 @@
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+      <c r="A22">
         <v>68</v>
       </c>
       <c r="B22" s="2">
@@ -40099,7 +40097,7 @@
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+      <c r="A23">
         <v>72</v>
       </c>
       <c r="B23" s="2">
@@ -40200,7 +40198,7 @@
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+      <c r="A24">
         <v>103</v>
       </c>
       <c r="B24" s="2">
@@ -52100,7 +52098,7 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52272,7 +52270,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B24"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52505,7 +52503,7 @@
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A24"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54183,7 +54181,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B24"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54418,8 +54416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F11394-557A-4560-A449-610CD0C8C988}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55127,7 +55125,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A24"/>
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55357,7 +55355,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03389998-6B6C-4C5E-BA5A-F18E018DC91C}">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:Y4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
